--- a/test_system/uploads/uploaaaaaaaaaadddd.xlsx
+++ b/test_system/uploads/uploaaaaaaaaaadddd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\badhu\OneDrive\Pictures\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D59D51F-0CB6-4A34-A07C-D5231072C33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C35EE7A-7F25-4708-B1CA-430C56F743DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A566DFE-6615-4E29-ABDA-FD1C582A25C3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Q. No</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>option_d</t>
-  </si>
-  <si>
-    <t>correct_asnwer</t>
   </si>
   <si>
     <t>SCQ</t>
@@ -171,6 +168,15 @@
   </si>
   <si>
     <t>2046</t>
+  </si>
+  <si>
+    <t>FILL</t>
+  </si>
+  <si>
+    <t>INDIAS CAPITAl?</t>
+  </si>
+  <si>
+    <t>correct_asnwer</t>
   </si>
 </sst>
 </file>
@@ -206,10 +212,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,20 +529,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0334EA56-1365-44D9-8F04-345040946093}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -565,196 +570,207 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>23</v>
+      <c r="C9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
